--- a/LGC_Motiv_results/study1/nutrition/cystein_scoring.xlsx
+++ b/LGC_Motiv_results/study1/nutrition/cystein_scoring.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
-    <t>Cysteine par semaine [ug]</t>
+    <t>Cysteine par semaine [mg]</t>
   </si>
   <si>
     <t>CID</t>
@@ -630,7 +630,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>796.8621800000001</v>
+        <v>7353.945</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -638,7 +638,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1753.406975</v>
+        <v>7672.184999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -646,7 +646,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1062.8496875</v>
+        <v>4335.6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -654,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2268.400655</v>
+        <v>3875.4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -662,7 +662,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1146.52665</v>
+        <v>7627.485</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -670,7 +670,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>479.013925</v>
+        <v>5349.235000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -678,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1259.36376</v>
+        <v>8963.235000000001</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -686,7 +686,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1256.67453</v>
+        <v>5923.885</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -694,7 +694,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>628.9694500000001</v>
+        <v>9747.125</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -702,7 +702,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>2146.056955</v>
+        <v>10637.2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -710,7 +710,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>776.4290900000001</v>
+        <v>6831.075000000001</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -718,7 +718,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1454.417715</v>
+        <v>5451.855</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -726,7 +726,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>944.3567400000001</v>
+        <v>4455.12</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -734,7 +734,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>498.05285</v>
+        <v>3569.375</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -742,7 +742,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1250.7294</v>
+        <v>7652.69</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -750,7 +750,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1799.79609</v>
+        <v>10802.565</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -758,7 +758,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>1773.4617775</v>
+        <v>9005.385</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -766,7 +766,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>4435.6981</v>
+        <v>14390.46</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -774,7 +774,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1367.716025</v>
+        <v>7458</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -782,7 +782,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>2155.76845</v>
+        <v>3225.41</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -790,7 +790,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1064.479475</v>
+        <v>7169.825000000001</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -798,7 +798,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>1240.4444</v>
+        <v>3110.8</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -806,7 +806,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>3763.326415</v>
+        <v>8417.125</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -814,7 +814,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>2859.78731</v>
+        <v>6211.790000000001</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -822,7 +822,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1973.86669</v>
+        <v>4319.775000000001</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -830,7 +830,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>1791.627815</v>
+        <v>5083.535000000001</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -838,7 +838,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>1068.8218625</v>
+        <v>6189.835</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -846,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>2196.4056</v>
+        <v>7698</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -854,7 +854,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>1540.8291875</v>
+        <v>13668.565</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -862,7 +862,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>1148.042075</v>
+        <v>7800.260000000001</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -870,7 +870,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>790.4369750000001</v>
+        <v>3948.845</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -878,7 +878,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>678.5675499999999</v>
+        <v>8522.385</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -886,7 +886,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>770.5848</v>
+        <v>4775.02</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -894,7 +894,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>476.4609499999999</v>
+        <v>5541.02</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -902,7 +902,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>772.822715</v>
+        <v>3005.735</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -910,7 +910,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>1445.7825375</v>
+        <v>10315.885</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -918,7 +918,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>5089.520949999999</v>
+        <v>20429.175</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -926,7 +926,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>1269.322735</v>
+        <v>6587.050000000001</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -934,7 +934,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>691.8086749999999</v>
+        <v>2597.6</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -942,7 +942,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>2368.025525</v>
+        <v>6508.27</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -950,7 +950,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>998.3993499999999</v>
+        <v>4887.55</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -958,7 +958,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>1572.65235</v>
+        <v>6279.3</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -966,7 +966,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>320.5430225</v>
+        <v>7156.674999999999</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -974,7 +974,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>767.28219</v>
+        <v>7843.895</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -982,7 +982,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>4380.475390000001</v>
+        <v>6788.265</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -990,7 +990,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>1712.710925</v>
+        <v>6176.884999999999</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -998,7 +998,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>87.2226</v>
+        <v>2197.85</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>1876.21274</v>
+        <v>9425.124999999998</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>655.02946</v>
+        <v>3505.485</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>1190.210605</v>
+        <v>4885.235</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>1532.5265125</v>
+        <v>4716.014999999999</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>660.0687150000001</v>
+        <v>3653.855</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>1476.986035</v>
+        <v>9308.309999999999</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>2500.211715</v>
+        <v>7796.135</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>778.358815</v>
+        <v>4033.785</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>995.5481124999998</v>
+        <v>5510.035</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>3927.147615</v>
+        <v>10735.475</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>1048.08224</v>
+        <v>4730.785000000001</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>848.9124249999999</v>
+        <v>3919.185</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>2394.037775</v>
+        <v>8232.799999999999</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>2110.655365</v>
+        <v>6126.21</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>1943.85425</v>
+        <v>3424.42</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>543.9813250000001</v>
+        <v>2360.835</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>1513.081085</v>
+        <v>6612.315000000001</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>2369.74805</v>
+        <v>3970.7</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>1153.369915</v>
+        <v>6831.36</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>1575.3334975</v>
+        <v>5915.915000000001</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>160.5442</v>
+        <v>3191.02</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>816.3370249999999</v>
+        <v>2491.15</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>2020.210065</v>
+        <v>6689.285</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>668.3809249999999</v>
+        <v>6354.535000000001</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>403.60684</v>
+        <v>2396.175</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>779.6858850000001</v>
+        <v>5733.56</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>1058.804</v>
+        <v>5630.320000000001</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>2119.09874</v>
+        <v>5751.620000000001</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>1689.794</v>
+        <v>8281.035</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>951.9835499999999</v>
+        <v>5348.474999999999</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>1419.89786</v>
+        <v>6368.110000000001</v>
       </c>
     </row>
   </sheetData>
